--- a/Cross_Val_Eval.xlsx
+++ b/Cross_Val_Eval.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyml\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Mean Validation Accuracy for sp-n</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,17 +83,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,9 +139,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,9 +173,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +208,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -373,67 +384,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="A1:L24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>0.9286869721562167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>0.9689143790931859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>0.9322061022585468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>0.9086026888295884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>0.9315049949514442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>0.9868987179441737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>0.8988972760584092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>0.9397740448958867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>0.8658015081538775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>0.8355552173896994</v>
-      </c>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
